--- a/trunk/ base-datos-g3/tp2/tests/Parametro, buckets y columna variables/errorPromedioStepsParametroYColumnaVariable.xlsx
+++ b/trunk/ base-datos-g3/tp2/tests/Parametro, buckets y columna variables/errorPromedioStepsParametroYColumnaVariable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="17715" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Atributo:  c0</t>
   </si>
@@ -50,12 +50,18 @@
   <si>
     <t>C9</t>
   </si>
+  <si>
+    <t>Cota1</t>
+  </si>
+  <si>
+    <t>Cota2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,24 +109,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -222,7 +217,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -325,7 +319,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -428,7 +421,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -531,7 +523,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -634,7 +625,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -737,7 +727,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -840,7 +829,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -943,7 +931,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1046,7 +1033,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1149,27 +1135,221 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Cota Error 1/S</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$2:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4285714285714285E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0909090909090905E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Cota Error 2/3S</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5238095238095247E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4074074074074077E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0606060606060606E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="244174848"/>
-        <c:axId val="244303744"/>
+        <c:axId val="82782080"/>
+        <c:axId val="82792448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244174848"/>
+        <c:axId val="82782080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1178,7 +1358,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="es-ES"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
@@ -1188,28 +1368,33 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244303744"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="es-ES"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82792448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244303744"/>
+        <c:axId val="82792448"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="8.0000000000000016E-2"/>
-          <c:min val="1.0000000000000002E-3"/>
+          <c:max val="4.5000000000000005E-2"/>
+          <c:min val="1.0000000000000005E-3"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:minorGridlines/>
         <c:title>
@@ -1219,7 +1404,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="es-ES"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES" sz="1500" baseline="0"/>
@@ -1229,13 +1414,21 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244174848"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="es-ES"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82782080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1243,15 +1436,23 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="es-ES"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1267,8 +1468,8 @@
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -1293,7 +1494,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1367,7 +1568,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1402,7 +1602,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1578,20 +1777,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1625,8 +1824,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1660,8 +1865,16 @@
       <c r="K2">
         <v>3.1194E-2</v>
       </c>
+      <c r="L2">
+        <f>1/A2</f>
+        <v>0.1</v>
+      </c>
+      <c r="M2">
+        <f>2/(3*A2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1695,8 +1908,16 @@
       <c r="K3">
         <v>1.5361E-2</v>
       </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L12" si="0">1/A3</f>
+        <v>0.05</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="1">2/(3*A3)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1730,8 +1951,16 @@
       <c r="K4">
         <v>1.1194000000000001E-2</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1765,8 +1994,16 @@
       <c r="K5">
         <v>7.4440000000000001E-3</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1800,8 +2037,16 @@
       <c r="K6">
         <v>5.8609999999999999E-3</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>60</v>
       </c>
@@ -1835,8 +2080,16 @@
       <c r="K7">
         <v>5.3610000000000003E-3</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>70</v>
       </c>
@@ -1870,8 +2123,16 @@
       <c r="K8">
         <v>4.5269999999999998E-3</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>80</v>
       </c>
@@ -1905,8 +2166,16 @@
       <c r="K9">
         <v>3.5179999999999999E-3</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>90</v>
       </c>
@@ -1940,8 +2209,16 @@
       <c r="K10">
         <v>3.8649999999999999E-3</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>7.4074074074074077E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1975,8 +2252,16 @@
       <c r="K11">
         <v>2.82E-3</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>110</v>
       </c>
@@ -2010,8 +2295,16 @@
       <c r="K12">
         <v>2.8549999999999999E-3</v>
       </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>6.0606060606060606E-3</v>
+      </c>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="15:15">
       <c r="O40" s="1"/>
     </row>
   </sheetData>
@@ -2021,24 +2314,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
